--- a/data-mining/lab2/lab2.xlsx
+++ b/data-mining/lab2/lab2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Drapegnik/projects/bsu/data-mining/lab2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="3920" windowWidth="17320" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -181,13 +186,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,6 +203,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -233,6 +243,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -561,15 +576,15 @@
   <dimension ref="A1:AP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16">
+    <row r="1" spans="1:42" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="16">
+    <row r="2" spans="1:42" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -825,106 +840,103 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
-      <c r="A8" s="2" t="s">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B3" s="2">
         <f>AVERAGE(A2:AP2)</f>
         <v>8.9523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
-      <c r="A9" s="2" t="s">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B4" s="2">
         <f>_xlfn.VAR.S(A2:AP2)</f>
         <v>2.8757259001161444</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
-      <c r="A10" s="2" t="s">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B5" s="2">
         <f>_xlfn.STDEV.S(A2:AP2)</f>
         <v>1.6957965385376113</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
-      <c r="A11" s="2" t="s">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B6" s="2">
         <f>_xlfn.MODE.SNGL(A2:AP2)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
-      <c r="A12" s="2" t="s">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B7" s="2">
         <f>MEDIAN(A2:AP2)</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
-      <c r="A13" s="2" t="s">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2">
-        <f>SUM(POWER(A2:AP2-B8, 3))/(COUNT(A2:AP2)*POWER(B9, 3))</f>
+      <c r="B8" s="2">
+        <f>SUM(POWER(A2:AP2-B3, 3))/(COUNT(A2:AP2)*POWER(B4, 3))</f>
         <v>-7.4507832382107366E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
-      <c r="A14" s="2" t="s">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="2">
-        <f>SUM(POWER(A2:AP2-B8, 4))/(COUNT(A2:AP2)*POWER(B9, 4))-3</f>
+      <c r="B9" s="2">
+        <f>SUM(POWER(A2:AP2-B3, 4))/(COUNT(A2:AP2)*POWER(B4, 4))-3</f>
         <v>-2.9949415320583874</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
-      <c r="A15" s="2" t="s">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B10" s="3">
         <f>TRIMMEAN(A2:AP2,0.15)</f>
         <v>8.8888888888888893</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
-      <c r="A16" s="2" t="s">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="2">
-        <f>B8/B10*100</f>
+      <c r="B11" s="2">
+        <f>B3/B5*100</f>
         <v>527.91598219094942</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="2">
-        <f>(SUM(ABS(A2:AP2-B8))/COUNT(A2:AP2))/B8*100</f>
+      <c r="B12" s="2">
+        <f>(SUM(ABS(A2:AP2-B3))/COUNT(A2:AP2))/B3*100</f>
         <v>0.5192502532928065</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>